--- a/Device Interaction/Manual Study/Locks.xlsx
+++ b/Device Interaction/Manual Study/Locks.xlsx
@@ -1002,7 +1002,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="61">
   <si>
     <t>Application</t>
   </si>
@@ -1335,7 +1335,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="9">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1350,17 +1350,7 @@
       <name val="Arial"/>
     </font>
     <font>
-      <u/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <b/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
     </font>
     <font>
       <color rgb="FF000000"/>
@@ -1486,8 +1476,8 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
@@ -1498,7 +1488,7 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -1510,14 +1500,14 @@
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="9" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="11" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
@@ -1576,7 +1566,7 @@
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1588,19 +1578,19 @@
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1745,9 +1735,8 @@
       <c r="C3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="8" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/official/beacon-control.groovy","beacon-control.groovy")</f>
-        <v>beacon-control.groovy</v>
+      <c r="D3" s="8" t="s">
+        <v>1</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>24</v>
@@ -1825,9 +1814,8 @@
       <c r="C4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="8" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/official/enhanced-auto-lock-door.groovy","enhanced-auto-lock-door.groovy")</f>
-        <v>enhanced-auto-lock-door.groovy</v>
+      <c r="D4" s="8" t="s">
+        <v>2</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>26</v>
@@ -1905,9 +1893,8 @@
       <c r="C5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="8" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/official/good-night-house.groovy","good-night-house.groovy")</f>
-        <v>good-night-house.groovy</v>
+      <c r="D5" s="8" t="s">
+        <v>3</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>26</v>
@@ -1985,9 +1972,8 @@
       <c r="C6" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="8" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/official/initial-state-event-streamer.groovy","initial-state-event-streamer.groovy")</f>
-        <v>initial-state-event-streamer.groovy</v>
+      <c r="D6" s="8" t="s">
+        <v>4</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>29</v>
@@ -2065,9 +2051,8 @@
       <c r="C7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="8" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/official/lock-it-at-a-specific-time.groovy","lock-it-at-a-specific-time.groovy")</f>
-        <v>lock-it-at-a-specific-time.groovy</v>
+      <c r="D7" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>26</v>
@@ -2145,9 +2130,8 @@
       <c r="C8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="8" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/official/lock-it-when-i-leave.groovy","lock-it-when-i-leave.groovy")</f>
-        <v>lock-it-when-i-leave.groovy</v>
+      <c r="D8" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>26</v>
@@ -2225,9 +2209,8 @@
       <c r="C9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="8" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/official/make-it-so.groovy","make-it-so.groovy")</f>
-        <v>make-it-so.groovy</v>
+      <c r="D9" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>32</v>
@@ -2305,9 +2288,8 @@
       <c r="C10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="8" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/official/nfc-tag-toggle.groovy","nfc-tag-toggle.groovy")</f>
-        <v>nfc-tag-toggle.groovy</v>
+      <c r="D10" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>26</v>
@@ -2385,9 +2367,8 @@
       <c r="C11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="8" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/official/single-button-controller.groovy","single-button-controller.groovy")</f>
-        <v>single-button-controller.groovy</v>
+      <c r="D11" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>26</v>
@@ -2465,9 +2446,8 @@
       <c r="C12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="18" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/official/smart-auto-lock-unlock.groovy","smart-auto-lock-unlock.groovy")</f>
-        <v>smart-auto-lock-unlock.groovy</v>
+      <c r="D12" s="18" t="s">
+        <v>10</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>26</v>
@@ -2545,9 +2525,8 @@
       <c r="C13" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="8" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/official/unlock-it-when-i-arrive.groovy","unlock-it-when-i-arrive.groovy")</f>
-        <v>unlock-it-when-i-arrive.groovy</v>
+      <c r="D13" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>26</v>
@@ -2625,9 +2604,8 @@
       <c r="C14" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="8" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/third-party/auto-lock-door.smartapp.groovy","auto-lock-door.smartapp.groovy")</f>
-        <v>auto-lock-door.smartapp.groovy</v>
+      <c r="D14" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>26</v>
@@ -2705,9 +2683,8 @@
       <c r="C15" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="8" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/third-party/buffered-event-sender.groovy","buffered-event-sender.groovy")</f>
-        <v>buffered-event-sender.groovy</v>
+      <c r="D15" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>29</v>
@@ -2785,9 +2762,8 @@
       <c r="C16" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="8" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/third-party/ecobeeAwayFromHome.groovy","ecobeeAwayFromHome.groovy")</f>
-        <v>ecobeeAwayFromHome.groovy</v>
+      <c r="D16" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>26</v>
@@ -2865,9 +2841,8 @@
       <c r="C17" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="8" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/third-party/FireCO2Alarm.groovy","FireCO2Alarm.groovy")</f>
-        <v>FireCO2Alarm.groovy</v>
+      <c r="D17" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>26</v>
@@ -2945,9 +2920,8 @@
       <c r="C18" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="8" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/third-party/groveStreams.groovy","groveStreams.groovy")</f>
-        <v>groveStreams.groovy</v>
+      <c r="D18" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="E18" s="14" t="s">
         <v>29</v>
@@ -3025,9 +2999,8 @@
       <c r="C19" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="8" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/third-party/influxdb-logger.groovy","influxdb-logger.groovy")</f>
-        <v>influxdb-logger.groovy</v>
+      <c r="D19" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="E19" s="14" t="s">
         <v>29</v>
@@ -3105,9 +3078,8 @@
       <c r="C20" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="8" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/third-party/initial-state-event-sender.groovy","initial-state-event-sender.groovy")</f>
-        <v>initial-state-event-sender.groovy</v>
+      <c r="D20" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="E20" s="14" t="s">
         <v>29</v>
@@ -3185,9 +3157,8 @@
       <c r="C21" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="8" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/third-party/initialstate-smart-app-v1.2.0.groovy","initialstate-smart-app-v1.2.0.groovy")</f>
-        <v>initialstate-smart-app-v1.2.0.groovy</v>
+      <c r="D21" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="E21" s="14" t="s">
         <v>29</v>
@@ -3265,9 +3236,8 @@
       <c r="C22" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="8" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/third-party/NotifyIfLeftUnlocked.groovy","NotifyIfLeftUnlocked.groovy")</f>
-        <v>NotifyIfLeftUnlocked.groovy</v>
+      <c r="D22" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>26</v>
@@ -3345,9 +3315,8 @@
       <c r="C23" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="8" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/third-party/unbuffered-event-sender.groovy","unbuffered-event-sender.groovy")</f>
-        <v>unbuffered-event-sender.groovy</v>
+      <c r="D23" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="E23" s="14" t="s">
         <v>29</v>
